--- a/Data/FinalData/test.xlsx
+++ b/Data/FinalData/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lapobini/Desktop/BVAR/Data/FinalData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lapobini/Desktop/BayesianVAR.jl/Data/FinalData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4BFA51-75AC-5F49-85BB-CE85892021A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1821C7A9-180B-2741-9D46-3ACF038856CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" activeTab="4" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_m" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="808">
   <si>
     <t>198401 !M</t>
   </si>
@@ -2447,6 +2447,12 @@
   </si>
   <si>
     <t>United States_GDP@FRED</t>
+  </si>
+  <si>
+    <t>Other Shock</t>
+  </si>
+  <si>
+    <t>Dates</t>
   </si>
 </sst>
 </file>
@@ -2833,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87705F3-7E97-7E43-AB28-3EF2678BF92C}">
   <dimension ref="A1:S504"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2844,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>807</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>773</v>
@@ -45805,10 +45811,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AAE5BE-5E23-2141-8EE6-A4E7B598A32B}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C19:C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45816,9 +45822,10 @@
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>771</v>
       </c>
@@ -45828,28 +45835,31 @@
       <c r="C1" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -45857,7 +45867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -45865,47 +45875,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -45913,7 +45923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -45921,7 +45931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -45932,101 +45942,128 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>660</v>
       </c>
       <c r="C23">
         <v>-1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>661</v>
       </c>
       <c r="C24">
         <v>-1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>670</v>
       </c>
       <c r="C33">
         <v>-1</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
       <c r="B34" t="s">
         <v>671</v>
       </c>
       <c r="C34">
         <v>-1</v>
       </c>
+      <c r="D34">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C34">
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D34">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
